--- a/working_clients.xlsx
+++ b/working_clients.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -25,19 +25,22 @@
     <t>Passwords</t>
   </si>
   <si>
-    <t>Jcrist Vincent Orhen</t>
-  </si>
-  <si>
-    <t>jcristorhen</t>
+    <t>Jerald Balacuit</t>
+  </si>
+  <si>
+    <t>jerald</t>
   </si>
   <si>
     <t>l03e1t3</t>
   </si>
   <si>
-    <t>Jerald Balacuit</t>
-  </si>
-  <si>
-    <t>jerald</t>
+    <t>Ronil Enoy</t>
+  </si>
+  <si>
+    <t>ronilenoy</t>
+  </si>
+  <si>
+    <t>2425</t>
   </si>
 </sst>
 </file>
@@ -45,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +59,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -87,15 +96,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -409,9 +421,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -426,7 +438,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -437,14 +449,14 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
